--- a/files/URL_Seed.xlsx
+++ b/files/URL_Seed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luisa\Documents\DataScience_M.Sc._HDM\Masterarbeit\Crawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universität\Hochschule der Medien\Master\Repository\ml-classification-repo\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9690265-95D7-4CD5-9134-5FEA32AB2EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA446D-1ADF-424B-BCA5-6EF407D277BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="-98" windowWidth="19492" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -742,17 +742,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -768,7 +768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -776,7 +776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -784,7 +784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -792,7 +792,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -800,7 +800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -808,7 +808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -816,7 +816,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -840,7 +840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -848,7 +848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -856,7 +856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -864,7 +864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -872,7 +872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -880,7 +880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -888,7 +888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -896,7 +896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -904,7 +904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -912,7 +912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -920,7 +920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -928,7 +928,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -936,7 +936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -944,7 +944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -960,7 +960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -968,7 +968,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -976,7 +976,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -984,7 +984,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -992,7 +992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>31</v>
       </c>
